--- a/spec/fixtures/files/models/concerns/excel/engine/tokenize_input_1.xlsx
+++ b/spec/fixtures/files/models/concerns/excel/engine/tokenize_input_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/concerns/excel/engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD569F9-6D38-1A46-B591-5A8E6002C0C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE25B60-9861-8C46-B854-9D77F78B83A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20200" xr2:uid="{1D071BAE-CED9-2945-847B-6921FA68A7AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>B</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>C;D:E:F ;  G ; H;</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A;B</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6F4A37-5908-DE45-9201-11BCE477B473}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,6 +502,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
